--- a/offline-forms/Behes_Gandhinagar_Round_@_Divine_Child_Intl_School___School_Reg.xlsx
+++ b/offline-forms/Behes_Gandhinagar_Round_@_Divine_Child_Intl_School___School_Reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="6SAUCq8wVKuCPDW74sIcNPsk56Ra7/sXToo0s3LAiUc="/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
@@ -24,38 +24,38 @@
     <t xml:space="preserve">Date of submission </t>
   </si>
   <si>
-    <t>Behes Gandhinagar Round @ Divine Child Intl School 16th -17th November</t>
+    <t xml:space="preserve">Behes Gandhinagar Round @ Divine Child Intl School 18th -19th January 2025</t>
   </si>
   <si>
-    <t>Coordinator's Name</t>
+    <t xml:space="preserve">Coordinator's Name</t>
   </si>
   <si>
     <t xml:space="preserve">Contact Number </t>
   </si>
   <si>
-    <t>Email the completed form to contact@behes.org!</t>
+    <t xml:space="preserve">Email the completed form to contact@behes.org!</t>
   </si>
   <si>
     <t xml:space="preserve">Email ID </t>
   </si>
   <si>
-    <t>Number of Adjudicators accompanying</t>
+    <t xml:space="preserve">Number of Adjudicators accompanying</t>
   </si>
   <si>
     <t xml:space="preserve">Registration Instructions:                                                                                                                                                                                      
 </t>
   </si>
   <si>
-    <t>* Please download the form and fill it offline using Microsoft excel</t>
+    <t xml:space="preserve">* Please download the form and fill it offline using Microsoft excel</t>
   </si>
   <si>
     <t xml:space="preserve">*To download click on file (at the top left corner of your screen) &gt; Download as &gt; Micosoft Excel (.xlsx) </t>
   </si>
   <si>
-    <t>*After filling this form rename it with your school name and round name. For example: TOS_MB22.xlsx (In case of delegation registration)</t>
+    <t xml:space="preserve">*After filling this form rename it with your school name and round name. For example: TOS_MB22.xlsx (In case of delegation registration)</t>
   </si>
   <si>
-    <t>*If you are registering as an independent team or mixed team rename the form with your team name and round name. For Example: LesMiserblahblahs_MB19.xlsx</t>
+    <t xml:space="preserve">*If you are registering as an independent team or mixed team rename the form with your team name and round name. For Example: LesMiserblahblahs_MB19.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">*Once completed email the form to contact@behes.org .You will receive a slot confirmation mail within 2 working days. Your registration will only be confirmed once we recieve the payment.                                                                                                                                          </t>
@@ -70,13 +70,13 @@
     <t xml:space="preserve">* There is no limit to number of teams. You can add as many teams as you like in the same form.    </t>
   </si>
   <si>
-    <t>*Each team must select a Team Representative. Team Representative's name to be filled in the yellow box/1st row of each team.</t>
+    <t xml:space="preserve">*Each team must select a Team Representative. Team Representative's name to be filled in the yellow box/1st row of each team.</t>
   </si>
   <si>
-    <t>*Debaters born after December 20, 2009 will be in the Cubs division.</t>
+    <t xml:space="preserve">*Debaters born after December 20, 2009 will be in the Cubs division.</t>
   </si>
   <si>
-    <t>Payment Details: 
+    <t xml:space="preserve">Payment Details: 
 Behes Consultants Private Limited
 ACC No: 125405000572
 ICICI Bank
@@ -86,13 +86,13 @@
 The registration fee for your delegation is payable both by Cheque /DD (one cheque/DD per school) and Net Transfer. In case of NEFT/RTGS/IMPS, please add name of your school or team leader in the remarks and attach proof of transaction with your registration form.</t>
   </si>
   <si>
-    <t>Team Name</t>
+    <t xml:space="preserve">Team Name</t>
   </si>
   <si>
-    <t>Division (Cubs/Lions)</t>
+    <t xml:space="preserve">Division (Cubs/Lions)</t>
   </si>
   <si>
-    <t>Full name</t>
+    <t xml:space="preserve">Full name</t>
   </si>
   <si>
     <t>School</t>
@@ -101,82 +101,82 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Email ID</t>
+    <t xml:space="preserve">Email ID</t>
   </si>
   <si>
-    <t>Date of Birth</t>
+    <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
-    <t>Payment Mode</t>
+    <t xml:space="preserve">Payment Mode</t>
   </si>
   <si>
-    <t>Payment ref. No.</t>
+    <t xml:space="preserve">Payment ref. No.</t>
   </si>
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Payment Proof/ Screenshot Link</t>
+    <t xml:space="preserve">Payment Proof/ Screenshot Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font/>
     <font>
       <i/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -189,7 +189,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -199,20 +199,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="27"/>
       </patternFill>
     </fill>
     <fill>
@@ -223,343 +223,587 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
-    <border/>
+  <borders count="17">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-    </border>
-    <border>
-      <left/>
-      <top/>
-    </border>
-    <border>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="none"/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <bottom/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="none"/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <top/>
-      <bottom/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
+      <left style="none"/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <top/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
-      <top/>
-    </border>
-    <border>
-      <left/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="none"/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="54">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="1" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="1" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf fontId="4" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="6" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="7" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="8" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf fontId="8" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="8" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="9" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="9" fillId="4" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="9" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="9" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="9" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="22" fillId="4" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="4" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="25" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf fontId="1" fillId="5" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="6" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="7" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="10" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="22" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="5" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="6" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="5" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="6" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="10" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -616,7 +860,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -642,7 +886,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -694,16 +938,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -719,7 +975,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -749,37 +1005,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.0"/>
-    <col customWidth="1" min="2" max="2" width="3.86"/>
-    <col customWidth="1" min="3" max="3" width="22.14"/>
-    <col customWidth="1" min="4" max="4" width="15.71"/>
-    <col customWidth="1" min="5" max="5" width="5.86"/>
+    <col customWidth="1" min="1" max="1" width="2"/>
+    <col customWidth="1" min="2" max="2" width="3.8599999999999999"/>
+    <col customWidth="1" min="3" max="3" width="22.140000000000001"/>
+    <col customWidth="1" min="4" max="4" width="15.710000000000001"/>
+    <col customWidth="1" min="5" max="5" width="5.8600000000000003"/>
     <col customWidth="1" min="6" max="6" width="25.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="8" width="6.0"/>
+    <col customWidth="1" min="7" max="7" width="17.140000000000001"/>
+    <col customWidth="1" min="8" max="8" width="6"/>
     <col customWidth="1" min="9" max="9" width="25.43"/>
-    <col customWidth="1" min="10" max="10" width="13.86"/>
+    <col customWidth="1" min="10" max="10" width="13.859999999999999"/>
     <col customWidth="1" min="11" max="11" width="22.57"/>
-    <col customWidth="1" min="12" max="12" width="19.14"/>
+    <col customWidth="1" min="12" max="12" width="19.140000000000001"/>
     <col customWidth="1" min="13" max="13" width="18.43"/>
     <col customWidth="1" min="14" max="14" width="29.43"/>
     <col customWidth="1" min="15" max="15" width="17.57"/>
-    <col customWidth="1" min="16" max="16" width="5.43"/>
-    <col customWidth="1" min="17" max="17" width="3.0"/>
-    <col customWidth="1" min="18" max="26" width="8.86"/>
+    <col customWidth="1" min="16" max="16" width="5.4299999999999997"/>
+    <col customWidth="1" min="17" max="17" width="3"/>
+    <col customWidth="1" min="18" max="26" width="8.8599999999999994"/>
   </cols>
   <sheetData>
     <row r="1" ht="9.75" customHeight="1">
@@ -814,10 +1074,10 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3">
@@ -830,103 +1090,103 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="4"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="19"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8">
@@ -936,18 +1196,18 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9">
@@ -960,1707 +1220,1707 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="1"/>
-      <c r="S16" s="28"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" ht="31.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="6"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="42" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" ht="105.75" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="44"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="19"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50" t="s">
+      <c r="E25" s="34"/>
+      <c r="F25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="K25" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="49" t="s">
+      <c r="L25" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="M25" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="52" t="s">
+      <c r="N25" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="55"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="39"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="54"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42">
+        <v>1</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="54"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42">
+        <v>2</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="54"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="42">
+        <v>3</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42">
+        <v>1</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="6"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42">
+        <v>2</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="4"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="6"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="42">
+        <v>3</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42">
+        <v>1</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="6"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42">
+        <v>2</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="6"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="42">
+        <v>3</v>
+      </c>
+      <c r="F34" s="47"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42">
+        <v>1</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="6"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42">
+        <v>2</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="4"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="6"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="42">
+        <v>3</v>
+      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F38" s="59"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="42">
+        <v>1</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="4"/>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F39" s="63"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="6"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42">
+        <v>2</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="4"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="6"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="42">
+        <v>3</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="4"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42">
+        <v>1</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="4"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F42" s="63"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="6"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="4"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F43" s="63"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="6"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="42">
+        <v>3</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="4"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="42">
+        <v>1</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="4"/>
       <c r="Q44" s="1"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="6"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42">
+        <v>2</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="4"/>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F46" s="63"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="6"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="42">
+        <v>3</v>
+      </c>
+      <c r="F46" s="47"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="4"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42">
+        <v>1</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="4"/>
       <c r="Q47" s="1"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F48" s="63"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="6"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42">
+        <v>2</v>
+      </c>
+      <c r="F48" s="47"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="4"/>
       <c r="Q48" s="1"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="6"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="42">
+        <v>3</v>
+      </c>
+      <c r="F49" s="47"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="4"/>
       <c r="Q49" s="1"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42">
+        <v>1</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="4"/>
       <c r="Q50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F51" s="63"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="6"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42">
+        <v>2</v>
+      </c>
+      <c r="F51" s="47"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="4"/>
       <c r="Q51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F52" s="63"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="6"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="42">
+        <v>3</v>
+      </c>
+      <c r="F52" s="47"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="4"/>
       <c r="Q52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="42">
+        <v>1</v>
+      </c>
+      <c r="F53" s="43"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="4"/>
       <c r="Q53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F54" s="63"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="6"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="42">
+        <v>2</v>
+      </c>
+      <c r="F54" s="47"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="4"/>
       <c r="Q54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="6"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="42">
+        <v>3</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="4"/>
       <c r="Q55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F56" s="59"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42">
+        <v>1</v>
+      </c>
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="4"/>
       <c r="Q56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F57" s="63"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="6"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42">
+        <v>2</v>
+      </c>
+      <c r="F57" s="47"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="4"/>
       <c r="Q57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F58" s="63"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="62"/>
-      <c r="O58" s="62"/>
-      <c r="P58" s="6"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="42">
+        <v>3</v>
+      </c>
+      <c r="F58" s="47"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="4"/>
       <c r="Q58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42">
+        <v>1</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="4"/>
       <c r="Q59" s="1"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F60" s="63"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="61"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="6"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42">
+        <v>2</v>
+      </c>
+      <c r="F60" s="47"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="4"/>
       <c r="Q60" s="1"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F61" s="63"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="6"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="42">
+        <v>3</v>
+      </c>
+      <c r="F61" s="47"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="4"/>
       <c r="Q61" s="1"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F62" s="59"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="42">
+        <v>1</v>
+      </c>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="4"/>
       <c r="Q62" s="1"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F63" s="63"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="6"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42">
+        <v>2</v>
+      </c>
+      <c r="F63" s="47"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="4"/>
       <c r="Q63" s="1"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F64" s="63"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="6"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="42">
+        <v>3</v>
+      </c>
+      <c r="F64" s="47"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="4"/>
       <c r="Q64" s="1"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="62"/>
-      <c r="P65" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42">
+        <v>1</v>
+      </c>
+      <c r="F65" s="43"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="4"/>
       <c r="Q65" s="1"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62"/>
-      <c r="P66" s="6"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42">
+        <v>2</v>
+      </c>
+      <c r="F66" s="47"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="4"/>
       <c r="Q66" s="1"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F67" s="63"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="6"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="42">
+        <v>3</v>
+      </c>
+      <c r="F67" s="47"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="4"/>
       <c r="Q67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F68" s="59"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="62"/>
-      <c r="O68" s="62"/>
-      <c r="P68" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C68" s="50"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="42">
+        <v>1</v>
+      </c>
+      <c r="F68" s="43"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="4"/>
       <c r="Q68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F69" s="63"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="6"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="42">
+        <v>2</v>
+      </c>
+      <c r="F69" s="47"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="4"/>
       <c r="Q69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="62"/>
-      <c r="P70" s="6"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="42">
+        <v>3</v>
+      </c>
+      <c r="F70" s="47"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="4"/>
       <c r="Q70" s="1"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="62"/>
-      <c r="P71" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="42">
+        <v>1</v>
+      </c>
+      <c r="F71" s="43"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="4"/>
       <c r="Q71" s="1"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="62"/>
-      <c r="O72" s="62"/>
-      <c r="P72" s="6"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="42">
+        <v>2</v>
+      </c>
+      <c r="F72" s="47"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="4"/>
       <c r="Q72" s="1"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F73" s="63"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="62"/>
-      <c r="P73" s="6"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="42">
+        <v>3</v>
+      </c>
+      <c r="F73" s="47"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="4"/>
       <c r="Q73" s="1"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F74" s="59"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="62"/>
-      <c r="P74" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="C74" s="40"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="42">
+        <v>1</v>
+      </c>
+      <c r="F74" s="43"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="4"/>
       <c r="Q74" s="1"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F75" s="63"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="62"/>
-      <c r="O75" s="62"/>
-      <c r="P75" s="6"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="42">
+        <v>2</v>
+      </c>
+      <c r="F75" s="47"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="4"/>
       <c r="Q75" s="1"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F76" s="63"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="62"/>
-      <c r="O76" s="62"/>
-      <c r="P76" s="6"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="42">
+        <v>3</v>
+      </c>
+      <c r="F76" s="47"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="4"/>
       <c r="Q76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F77" s="59"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="62"/>
-      <c r="O77" s="62"/>
-      <c r="P77" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C77" s="40"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="42">
+        <v>1</v>
+      </c>
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="4"/>
       <c r="Q77" s="1"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F78" s="63"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="62"/>
-      <c r="O78" s="62"/>
-      <c r="P78" s="6"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="42">
+        <v>2</v>
+      </c>
+      <c r="F78" s="47"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="4"/>
       <c r="Q78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F79" s="63"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="61"/>
-      <c r="N79" s="62"/>
-      <c r="O79" s="62"/>
-      <c r="P79" s="6"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="42">
+        <v>3</v>
+      </c>
+      <c r="F79" s="47"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="4"/>
       <c r="Q79" s="1"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="C80" s="56"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F80" s="59"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="62"/>
-      <c r="O80" s="62"/>
-      <c r="P80" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="42">
+        <v>1</v>
+      </c>
+      <c r="F80" s="43"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="4"/>
       <c r="Q80" s="1"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="58"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="62"/>
-      <c r="O81" s="62"/>
-      <c r="P81" s="6"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="42">
+        <v>2</v>
+      </c>
+      <c r="F81" s="47"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="4"/>
       <c r="Q81" s="1"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F82" s="63"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="62"/>
-      <c r="O82" s="62"/>
-      <c r="P82" s="6"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="42">
+        <v>3</v>
+      </c>
+      <c r="F82" s="47"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="4"/>
       <c r="Q82" s="1"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="C83" s="66"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C83" s="50"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="42">
+        <v>1</v>
+      </c>
+      <c r="F83" s="43"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="4"/>
       <c r="Q83" s="1"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="58"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="62"/>
-      <c r="P84" s="6"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="42">
+        <v>2</v>
+      </c>
+      <c r="F84" s="47"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="4"/>
       <c r="Q84" s="1"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="F85" s="63"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="58"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="62"/>
-      <c r="O85" s="62"/>
-      <c r="P85" s="6"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="42">
+        <v>3</v>
+      </c>
+      <c r="F85" s="47"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="4"/>
       <c r="Q85" s="1"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="68"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="52"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="1"/>
@@ -2758,723 +3018,723 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="69"/>
+      <c r="B106" s="53"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="69"/>
+      <c r="B107" s="53"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="69"/>
+      <c r="B108" s="53"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="69"/>
+      <c r="B109" s="53"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="69"/>
+      <c r="B110" s="53"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="69"/>
+      <c r="B111" s="53"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="69"/>
+      <c r="B112" s="53"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="69"/>
+      <c r="B113" s="53"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="69"/>
+      <c r="B114" s="53"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="69"/>
+      <c r="B115" s="53"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="69"/>
+      <c r="B116" s="53"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="69"/>
+      <c r="B117" s="53"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="69"/>
+      <c r="B118" s="53"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="69"/>
+      <c r="B119" s="53"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="69"/>
+      <c r="B120" s="53"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="69"/>
+      <c r="B121" s="53"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="69"/>
+      <c r="B122" s="53"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="69"/>
+      <c r="B123" s="53"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="69"/>
+      <c r="B124" s="53"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="69"/>
+      <c r="B125" s="53"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="69"/>
+      <c r="B126" s="53"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
-      <c r="B127" s="69"/>
+      <c r="B127" s="53"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
-      <c r="B128" s="69"/>
+      <c r="B128" s="53"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
-      <c r="B129" s="69"/>
+      <c r="B129" s="53"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="69"/>
+      <c r="B130" s="53"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="69"/>
+      <c r="B131" s="53"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="69"/>
+      <c r="B132" s="53"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="69"/>
+      <c r="B133" s="53"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
-      <c r="B134" s="69"/>
+      <c r="B134" s="53"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="69"/>
+      <c r="B135" s="53"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="69"/>
+      <c r="B136" s="53"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="69"/>
+      <c r="B137" s="53"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="69"/>
+      <c r="B138" s="53"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="69"/>
+      <c r="B139" s="53"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="69"/>
+      <c r="B140" s="53"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
-      <c r="B141" s="69"/>
+      <c r="B141" s="53"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="69"/>
+      <c r="B142" s="53"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
-      <c r="B143" s="69"/>
+      <c r="B143" s="53"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
-      <c r="B144" s="69"/>
+      <c r="B144" s="53"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
-      <c r="B145" s="69"/>
+      <c r="B145" s="53"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
-      <c r="B146" s="69"/>
+      <c r="B146" s="53"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
-      <c r="B147" s="69"/>
+      <c r="B147" s="53"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
-      <c r="B148" s="69"/>
+      <c r="B148" s="53"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
-      <c r="B149" s="69"/>
+      <c r="B149" s="53"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
-      <c r="B150" s="69"/>
+      <c r="B150" s="53"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
-      <c r="B151" s="69"/>
+      <c r="B151" s="53"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
-      <c r="B152" s="69"/>
+      <c r="B152" s="53"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
-      <c r="B153" s="69"/>
+      <c r="B153" s="53"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
-      <c r="B154" s="69"/>
+      <c r="B154" s="53"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
-      <c r="B155" s="69"/>
+      <c r="B155" s="53"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
-      <c r="B156" s="69"/>
+      <c r="B156" s="53"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
-      <c r="B157" s="69"/>
+      <c r="B157" s="53"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="4"/>
-      <c r="B158" s="69"/>
+      <c r="B158" s="53"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="4"/>
-      <c r="B159" s="69"/>
+      <c r="B159" s="53"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="4"/>
-      <c r="B160" s="69"/>
+      <c r="B160" s="53"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="4"/>
-      <c r="B161" s="69"/>
+      <c r="B161" s="53"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="4"/>
-      <c r="B162" s="69"/>
+      <c r="B162" s="53"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="4"/>
-      <c r="B163" s="69"/>
+      <c r="B163" s="53"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="4"/>
-      <c r="B164" s="69"/>
+      <c r="B164" s="53"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="4"/>
-      <c r="B165" s="69"/>
+      <c r="B165" s="53"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="4"/>
-      <c r="B166" s="69"/>
+      <c r="B166" s="53"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
-      <c r="B167" s="69"/>
+      <c r="B167" s="53"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="4"/>
-      <c r="B168" s="69"/>
+      <c r="B168" s="53"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
-      <c r="B169" s="69"/>
+      <c r="B169" s="53"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="4"/>
-      <c r="B170" s="69"/>
+      <c r="B170" s="53"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="4"/>
-      <c r="B171" s="69"/>
+      <c r="B171" s="53"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
-      <c r="B172" s="69"/>
+      <c r="B172" s="53"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="4"/>
-      <c r="B173" s="69"/>
+      <c r="B173" s="53"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="4"/>
-      <c r="B174" s="69"/>
+      <c r="B174" s="53"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
-      <c r="B175" s="69"/>
+      <c r="B175" s="53"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
-      <c r="B176" s="69"/>
+      <c r="B176" s="53"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="4"/>
-      <c r="B177" s="69"/>
+      <c r="B177" s="53"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
-      <c r="B178" s="69"/>
+      <c r="B178" s="53"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="4"/>
-      <c r="B179" s="69"/>
+      <c r="B179" s="53"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="4"/>
-      <c r="B180" s="69"/>
+      <c r="B180" s="53"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="4"/>
-      <c r="B181" s="69"/>
+      <c r="B181" s="53"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="4"/>
-      <c r="B182" s="69"/>
+      <c r="B182" s="53"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="4"/>
-      <c r="B183" s="69"/>
+      <c r="B183" s="53"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="4"/>
-      <c r="B184" s="69"/>
+      <c r="B184" s="53"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="4"/>
-      <c r="B185" s="69"/>
+      <c r="B185" s="53"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
-      <c r="B186" s="69"/>
+      <c r="B186" s="53"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
-      <c r="B187" s="69"/>
+      <c r="B187" s="53"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
-      <c r="B188" s="69"/>
+      <c r="B188" s="53"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
-      <c r="B189" s="69"/>
+      <c r="B189" s="53"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
-      <c r="B190" s="69"/>
+      <c r="B190" s="53"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
-      <c r="B191" s="69"/>
+      <c r="B191" s="53"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
-      <c r="B192" s="69"/>
+      <c r="B192" s="53"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
-      <c r="B193" s="69"/>
+      <c r="B193" s="53"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
-      <c r="B194" s="69"/>
+      <c r="B194" s="53"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
-      <c r="B195" s="69"/>
+      <c r="B195" s="53"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
-      <c r="B196" s="69"/>
+      <c r="B196" s="53"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="4"/>
-      <c r="B197" s="69"/>
+      <c r="B197" s="53"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="4"/>
-      <c r="B198" s="69"/>
+      <c r="B198" s="53"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
-      <c r="B199" s="69"/>
+      <c r="B199" s="53"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
-      <c r="B200" s="69"/>
+      <c r="B200" s="53"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
-      <c r="B201" s="69"/>
+      <c r="B201" s="53"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
-      <c r="B202" s="69"/>
+      <c r="B202" s="53"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
-      <c r="B203" s="69"/>
+      <c r="B203" s="53"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
-      <c r="B204" s="69"/>
+      <c r="B204" s="53"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
-      <c r="B205" s="69"/>
+      <c r="B205" s="53"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
-      <c r="B206" s="69"/>
+      <c r="B206" s="53"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="4"/>
-      <c r="B207" s="69"/>
+      <c r="B207" s="53"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="4"/>
-      <c r="B208" s="69"/>
+      <c r="B208" s="53"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="4"/>
-      <c r="B209" s="69"/>
+      <c r="B209" s="53"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="4"/>
-      <c r="B210" s="69"/>
+      <c r="B210" s="53"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="4"/>
-      <c r="B211" s="69"/>
+      <c r="B211" s="53"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="4"/>
-      <c r="B212" s="69"/>
+      <c r="B212" s="53"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="4"/>
-      <c r="B213" s="69"/>
+      <c r="B213" s="53"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="4"/>
-      <c r="B214" s="69"/>
+      <c r="B214" s="53"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="4"/>
-      <c r="B215" s="69"/>
+      <c r="B215" s="53"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="4"/>
-      <c r="B216" s="69"/>
+      <c r="B216" s="53"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="4"/>
-      <c r="B217" s="69"/>
+      <c r="B217" s="53"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="4"/>
-      <c r="B218" s="69"/>
+      <c r="B218" s="53"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="4"/>
-      <c r="B219" s="69"/>
+      <c r="B219" s="53"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
-      <c r="B220" s="69"/>
+      <c r="B220" s="53"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="4"/>
-      <c r="B221" s="69"/>
+      <c r="B221" s="53"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="4"/>
-      <c r="B222" s="69"/>
+      <c r="B222" s="53"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="4"/>
-      <c r="B223" s="69"/>
+      <c r="B223" s="53"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="4"/>
-      <c r="B224" s="69"/>
+      <c r="B224" s="53"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="4"/>
-      <c r="B225" s="69"/>
+      <c r="B225" s="53"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="4"/>
-      <c r="B226" s="69"/>
+      <c r="B226" s="53"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="4"/>
-      <c r="B227" s="69"/>
+      <c r="B227" s="53"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="4"/>
-      <c r="B228" s="69"/>
+      <c r="B228" s="53"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="4"/>
-      <c r="B229" s="69"/>
+      <c r="B229" s="53"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="4"/>
-      <c r="B230" s="69"/>
+      <c r="B230" s="53"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="4"/>
-      <c r="B231" s="69"/>
+      <c r="B231" s="53"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="4"/>
-      <c r="B232" s="69"/>
+      <c r="B232" s="53"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="4"/>
-      <c r="B233" s="69"/>
+      <c r="B233" s="53"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="4"/>
-      <c r="B234" s="69"/>
+      <c r="B234" s="53"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="4"/>
-      <c r="B235" s="69"/>
+      <c r="B235" s="53"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="4"/>
-      <c r="B236" s="69"/>
+      <c r="B236" s="53"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="4"/>
-      <c r="B237" s="69"/>
+      <c r="B237" s="53"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="4"/>
-      <c r="B238" s="69"/>
+      <c r="B238" s="53"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="4"/>
-      <c r="B239" s="69"/>
+      <c r="B239" s="53"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="4"/>
-      <c r="B240" s="69"/>
+      <c r="B240" s="53"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="4"/>
-      <c r="B241" s="69"/>
+      <c r="B241" s="53"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="4"/>
-      <c r="B242" s="69"/>
+      <c r="B242" s="53"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="4"/>
-      <c r="B243" s="69"/>
+      <c r="B243" s="53"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="4"/>
-      <c r="B244" s="69"/>
+      <c r="B244" s="53"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="4"/>
-      <c r="B245" s="69"/>
+      <c r="B245" s="53"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="4"/>
-      <c r="B246" s="69"/>
+      <c r="B246" s="53"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="4"/>
-      <c r="B247" s="69"/>
+      <c r="B247" s="53"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="4"/>
-      <c r="B248" s="69"/>
+      <c r="B248" s="53"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="4"/>
-      <c r="B249" s="69"/>
+      <c r="B249" s="53"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="4"/>
-      <c r="B250" s="69"/>
+      <c r="B250" s="53"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="4"/>
-      <c r="B251" s="69"/>
+      <c r="B251" s="53"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="4"/>
-      <c r="B252" s="69"/>
+      <c r="B252" s="53"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="4"/>
-      <c r="B253" s="69"/>
+      <c r="B253" s="53"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="4"/>
-      <c r="B254" s="69"/>
+      <c r="B254" s="53"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="4"/>
-      <c r="B255" s="69"/>
+      <c r="B255" s="53"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="4"/>
-      <c r="B256" s="69"/>
+      <c r="B256" s="53"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="4"/>
-      <c r="B257" s="69"/>
+      <c r="B257" s="53"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="4"/>
-      <c r="B258" s="69"/>
+      <c r="B258" s="53"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="4"/>
-      <c r="B259" s="69"/>
+      <c r="B259" s="53"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="4"/>
-      <c r="B260" s="69"/>
+      <c r="B260" s="53"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="4"/>
-      <c r="B261" s="69"/>
+      <c r="B261" s="53"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="4"/>
-      <c r="B262" s="69"/>
+      <c r="B262" s="53"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="4"/>
-      <c r="B263" s="69"/>
+      <c r="B263" s="53"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="4"/>
-      <c r="B264" s="69"/>
+      <c r="B264" s="53"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="4"/>
-      <c r="B265" s="69"/>
+      <c r="B265" s="53"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="4"/>
-      <c r="B266" s="69"/>
+      <c r="B266" s="53"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="4"/>
-      <c r="B267" s="69"/>
+      <c r="B267" s="53"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="4"/>
-      <c r="B268" s="69"/>
+      <c r="B268" s="53"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="4"/>
-      <c r="B269" s="69"/>
+      <c r="B269" s="53"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="4"/>
-      <c r="B270" s="69"/>
+      <c r="B270" s="53"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="4"/>
-      <c r="B271" s="69"/>
+      <c r="B271" s="53"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="4"/>
-      <c r="B272" s="69"/>
+      <c r="B272" s="53"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="4"/>
-      <c r="B273" s="69"/>
+      <c r="B273" s="53"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="4"/>
-      <c r="B274" s="69"/>
+      <c r="B274" s="53"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="4"/>
-      <c r="B275" s="69"/>
+      <c r="B275" s="53"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="4"/>
-      <c r="B276" s="69"/>
+      <c r="B276" s="53"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="4"/>
-      <c r="B277" s="69"/>
+      <c r="B277" s="53"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="4"/>
-      <c r="B278" s="69"/>
+      <c r="B278" s="53"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="4"/>
-      <c r="B279" s="69"/>
+      <c r="B279" s="53"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="4"/>
-      <c r="B280" s="69"/>
+      <c r="B280" s="53"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="4"/>
-      <c r="B281" s="69"/>
+      <c r="B281" s="53"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="4"/>
-      <c r="B282" s="69"/>
+      <c r="B282" s="53"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="4"/>
-      <c r="B283" s="69"/>
+      <c r="B283" s="53"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="4"/>
-      <c r="B284" s="69"/>
+      <c r="B284" s="53"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="4"/>
-      <c r="B285" s="69"/>
+      <c r="B285" s="53"/>
     </row>
     <row r="286" ht="15.75" customHeight="1"/>
     <row r="287" ht="15.75" customHeight="1"/>
@@ -4200,8 +4460,15 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:O6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:O7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:O8"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
     <mergeCell ref="C15:O15"/>
     <mergeCell ref="C16:O16"/>
     <mergeCell ref="C17:O17"/>
@@ -4210,20 +4477,13 @@
     <mergeCell ref="C20:O20"/>
     <mergeCell ref="C22:N23"/>
     <mergeCell ref="C86:K86"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="C11:O11"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="C14:O14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C4"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>